--- a/Report/Bill of Materials_20170607.xlsx
+++ b/Report/Bill of Materials_20170607.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Sr No.</t>
   </si>
@@ -69,15 +69,6 @@
     <t>LabVIEW RIO Evaluation Kit</t>
   </si>
   <si>
-    <t>https://www.amazon.com/dp/B0009TAOC6/ref=pd_luc_rh_bxgy_01_01_t_img_lh?_encoding=UTF8&amp;psc=1</t>
-  </si>
-  <si>
-    <t>CURT 40003 Trailer Ball</t>
-  </si>
-  <si>
-    <t>5.47$</t>
-  </si>
-  <si>
     <t>http://www.trekk-4x4.be/air-tanks/632-10-gallon-tank-four-1-4-npt-ports-150-psi-rated.html?search_query=1+gallon+air+tank&amp;results=44</t>
   </si>
   <si>
@@ -147,16 +138,13 @@
     <t>Total</t>
   </si>
   <si>
-    <t>16.41$</t>
-  </si>
-  <si>
-    <t>Following items have prices in dollars</t>
-  </si>
-  <si>
-    <t>3598.83 Euro +16.41$</t>
-  </si>
-  <si>
     <t>Bill of Material</t>
+  </si>
+  <si>
+    <t>300mm Stroke, 45lb Air Muscle (2 Spare)</t>
+  </si>
+  <si>
+    <t>http://www.robotshop.com/en/300mm-stroke-65lb-air-muscle.html</t>
   </si>
 </sst>
 </file>
@@ -285,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -308,9 +296,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -326,17 +311,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -621,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,14 +628,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="A1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -697,11 +688,11 @@
         <v>66</v>
       </c>
       <c r="D5" s="3">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3">
-        <f>66*27</f>
-        <v>1782</v>
+        <f>(D5*C5)</f>
+        <v>1188</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>7</v>
@@ -718,11 +709,11 @@
         <v>110.03</v>
       </c>
       <c r="D6" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3">
-        <f>110.03*7</f>
-        <v>770.21</v>
+        <f t="shared" ref="E6:E20" si="0">(D6*C6)</f>
+        <v>330.09000000000003</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>9</v>
@@ -732,82 +723,84 @@
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="3">
-        <v>55.77</v>
+        <v>99</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
       </c>
       <c r="E7" s="3">
-        <f>55.77*2</f>
-        <v>111.54</v>
+        <f t="shared" si="0"/>
+        <v>198</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>390</v>
+        <v>55.77</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3">
-        <v>390</v>
+        <f t="shared" si="0"/>
+        <v>111.54</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>20</v>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="3">
-        <v>72.91</v>
+        <v>390</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>72.91</v>
+        <f>(D9*C9)</f>
+        <v>390</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
+      <c r="B10" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="3">
-        <v>3.4</v>
+        <v>72.91</v>
       </c>
       <c r="D10" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3">
-        <f>C10*D10</f>
-        <v>17</v>
+        <f>(D10*C10)</f>
+        <v>72.91</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -815,39 +808,41 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
-        <v>12.13</v>
+        <v>3.4</v>
       </c>
       <c r="D11" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="3">
-        <v>12.13</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3">
-        <v>13.64</v>
+        <v>12.13</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>13.64</v>
+        <f t="shared" si="0"/>
+        <v>12.13</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -855,19 +850,20 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3">
-        <v>11.9</v>
+        <v>13.64</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>11.9</v>
+        <f t="shared" si="0"/>
+        <v>13.64</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -875,39 +871,41 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3">
-        <v>12.24</v>
+        <v>11.9</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>12.24</v>
+        <f t="shared" si="0"/>
+        <v>11.9</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3">
-        <v>53.13</v>
+        <v>12.24</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>53.13</v>
+        <f t="shared" si="0"/>
+        <v>12.24</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -915,158 +913,159 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3">
-        <v>3.11</v>
+        <v>53.13</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3">
-        <f>3.11*5</f>
-        <v>15.549999999999999</v>
+        <f t="shared" si="0"/>
+        <v>53.13</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3">
-        <v>2.3639999999999999</v>
+        <v>3.11</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <f>2.364*5</f>
-        <v>11.82</v>
+        <f t="shared" si="0"/>
+        <v>15.549999999999999</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>38</v>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C18" s="3">
-        <v>7.66</v>
+        <v>2.3639999999999999</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>7.66</v>
+        <f t="shared" si="0"/>
+        <v>11.82</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>40</v>
+      <c r="B19" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C19" s="3">
+        <v>7.66</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>7.66</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="3">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <v>5</v>
       </c>
-      <c r="E19" s="3">
-        <f>2.18*5</f>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
         <v>10.9</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="C20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13">
-        <f>SUM(E4:E19)</f>
-        <v>3598.83</v>
+      <c r="F20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="C21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12">
+        <f>SUM(E4:E20)</f>
+        <v>2762.71</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>17</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="3">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="36" x14ac:dyDescent="0.3">
-      <c r="C24" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="C24:D24"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1"/>
     <hyperlink ref="F5" r:id="rId2"/>
     <hyperlink ref="F6" r:id="rId3"/>
-    <hyperlink ref="F7" r:id="rId4"/>
-    <hyperlink ref="F8" r:id="rId5"/>
-    <hyperlink ref="F23" r:id="rId6"/>
-    <hyperlink ref="F9" r:id="rId7"/>
-    <hyperlink ref="F11" r:id="rId8"/>
-    <hyperlink ref="F12" r:id="rId9"/>
-    <hyperlink ref="F13" r:id="rId10"/>
-    <hyperlink ref="F14" r:id="rId11"/>
-    <hyperlink ref="F15" r:id="rId12"/>
-    <hyperlink ref="F10" r:id="rId13"/>
-    <hyperlink ref="F16" r:id="rId14"/>
-    <hyperlink ref="F18" r:id="rId15"/>
-    <hyperlink ref="F19" r:id="rId16"/>
+    <hyperlink ref="F8" r:id="rId4"/>
+    <hyperlink ref="F9" r:id="rId5"/>
+    <hyperlink ref="F10" r:id="rId6"/>
+    <hyperlink ref="F12" r:id="rId7"/>
+    <hyperlink ref="F13" r:id="rId8"/>
+    <hyperlink ref="F14" r:id="rId9"/>
+    <hyperlink ref="F15" r:id="rId10"/>
+    <hyperlink ref="F16" r:id="rId11"/>
+    <hyperlink ref="F11" r:id="rId12"/>
+    <hyperlink ref="F17" r:id="rId13"/>
+    <hyperlink ref="F19" r:id="rId14"/>
+    <hyperlink ref="F20" r:id="rId15"/>
+    <hyperlink ref="F7" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId17"/>
